--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1803409721043333</v>
+        <v>1.033995468495</v>
       </c>
       <c r="R2">
-        <v>1.082045832626</v>
+        <v>6.203972810970001</v>
       </c>
       <c r="S2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="T2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H3">
         <v>2.626902</v>
       </c>
       <c r="I3">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J3">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.243993079076</v>
+        <v>0.2439930790760001</v>
       </c>
       <c r="R3">
         <v>2.195937711684</v>
       </c>
       <c r="S3">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="T3">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H4">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I4">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J4">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9865896156460001</v>
+        <v>0.2921254119642223</v>
       </c>
       <c r="R4">
-        <v>8.879306540814001</v>
+        <v>2.629128707678</v>
       </c>
       <c r="S4">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="T4">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H5">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I5">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J5">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2913188208166667</v>
+        <v>0.3435483376530001</v>
       </c>
       <c r="R5">
-        <v>1.7479129249</v>
+        <v>2.061290025918</v>
       </c>
       <c r="S5">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="T5">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H6">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I6">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J6">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3465697571295556</v>
+        <v>0.2681445580453334</v>
       </c>
       <c r="R6">
-        <v>3.119127814166</v>
+        <v>2.413301022408</v>
       </c>
       <c r="S6">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="T6">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H7">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I7">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J7">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>6.527014887627113</v>
+        <v>0.2243937687088889</v>
       </c>
       <c r="R7">
-        <v>58.743133988644</v>
+        <v>2.01954391838</v>
       </c>
       <c r="S7">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="T7">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
     </row>
   </sheetData>
